--- a/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2448C08-621A-46F6-B443-656BA63AA2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502AC23-B702-4853-8123-A2AF13757780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="16" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | FEBRUARY" sheetId="902" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="91">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -317,6 +317,30 @@
   </si>
   <si>
     <t>DATE _______________________________</t>
+  </si>
+  <si>
+    <t>7/23B</t>
+  </si>
+  <si>
+    <t>2/2B</t>
+  </si>
+  <si>
+    <t>10/1B</t>
+  </si>
+  <si>
+    <t>10/16B</t>
+  </si>
+  <si>
+    <t>6/7B</t>
+  </si>
+  <si>
+    <t>4/9B</t>
+  </si>
+  <si>
+    <t>5/20B</t>
+  </si>
+  <si>
+    <t>12/4B</t>
   </si>
 </sst>
 </file>
@@ -1191,39 +1215,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,12 +1222,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,6 +1258,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3752,58 +3776,58 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
-      <c r="Z34" s="100"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -3846,13 +3870,13 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -3877,7 +3901,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="96"/>
+      <c r="R36" s="83"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="73"/>
@@ -3902,8 +3926,8 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="83"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="73"/>
@@ -3929,7 +3953,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="96"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="73"/>
@@ -3955,7 +3979,7 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="73"/>
@@ -3981,7 +4005,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="83"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="73"/>
@@ -4006,11 +4030,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -4035,12 +4059,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -5359,10 +5383,10 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
@@ -5370,48 +5394,48 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -5457,7 +5481,7 @@
       <c r="Q35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="87"/>
+      <c r="R35" s="76"/>
       <c r="S35" s="70"/>
       <c r="T35" s="70"/>
       <c r="U35" s="40"/>
@@ -5510,7 +5534,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -5614,11 +5638,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -5643,12 +5667,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -6976,47 +7000,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -7059,7 +7083,7 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
       <c r="R35" s="70"/>
@@ -7115,7 +7139,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -7219,11 +7243,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -7248,12 +7272,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -8569,58 +8593,58 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
-      <c r="Z34" s="100"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -8663,13 +8687,13 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -8694,7 +8718,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="96"/>
+      <c r="R36" s="83"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="73"/>
@@ -8719,8 +8743,8 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="83"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="73"/>
@@ -8746,7 +8770,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="96"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="73"/>
@@ -8772,7 +8796,7 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="73"/>
@@ -8798,7 +8822,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="83"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="73"/>
@@ -8823,11 +8847,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -8852,12 +8876,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -10171,58 +10195,58 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
-      <c r="Z34" s="100"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -10265,13 +10289,13 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -10296,7 +10320,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="96"/>
+      <c r="R36" s="83"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="73"/>
@@ -10321,8 +10345,8 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="83"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="73"/>
@@ -10348,7 +10372,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="96"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="73"/>
@@ -10374,7 +10398,7 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="73"/>
@@ -10400,7 +10424,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="83"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="73"/>
@@ -10425,11 +10449,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -10454,12 +10478,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -11778,10 +11802,10 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
@@ -11789,48 +11813,48 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -11876,7 +11900,7 @@
       <c r="Q35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="87"/>
+      <c r="R35" s="76"/>
       <c r="S35" s="70"/>
       <c r="T35" s="70"/>
       <c r="U35" s="40"/>
@@ -11929,7 +11953,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -12033,11 +12057,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -12062,12 +12086,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -13395,47 +13419,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -13478,7 +13502,7 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
       <c r="R35" s="70"/>
@@ -13534,7 +13558,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -13638,11 +13662,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -13667,12 +13691,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -13726,7 +13750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BC1B7F-7988-41AD-818A-09552FB189F9}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -14988,58 +15012,58 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
-      <c r="Z34" s="100"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -15082,13 +15106,13 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -15113,7 +15137,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="96"/>
+      <c r="R36" s="83"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="73"/>
@@ -15138,8 +15162,8 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="83"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="73"/>
@@ -15165,7 +15189,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="96"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="73"/>
@@ -15191,7 +15215,7 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="73"/>
@@ -15217,7 +15241,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="83"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="73"/>
@@ -15242,11 +15266,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -15271,12 +15295,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -16605,48 +16629,48 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="74" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="77" t="s">
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="79"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="94"/>
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -16881,13 +16905,13 @@
       <c r="R42" s="68"/>
       <c r="S42" s="68"/>
       <c r="T42" s="46"/>
-      <c r="U42" s="80" t="s">
+      <c r="U42" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="V42" s="80"/>
-      <c r="W42" s="80"/>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
     </row>
     <row r="43" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -18262,10 +18286,10 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
@@ -18273,48 +18297,48 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -18360,7 +18384,7 @@
       <c r="Q35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="87"/>
+      <c r="R35" s="76"/>
       <c r="S35" s="70"/>
       <c r="T35" s="70"/>
       <c r="U35" s="40"/>
@@ -18437,7 +18461,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -18541,11 +18565,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -18594,12 +18618,12 @@
       <c r="Q42" s="46">
         <v>34</v>
       </c>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -18633,14 +18657,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -19993,47 +20017,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -20076,7 +20100,7 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
       <c r="R35" s="70"/>
@@ -20148,7 +20172,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -20252,11 +20276,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -20297,12 +20321,12 @@
       <c r="Q42" s="46">
         <v>18</v>
       </c>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -20336,14 +20360,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -21672,58 +21696,58 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
-      <c r="Z34" s="100"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -21766,13 +21790,13 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -21817,7 +21841,7 @@
       <c r="Q36" s="46">
         <v>7</v>
       </c>
-      <c r="R36" s="96"/>
+      <c r="R36" s="83"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="73"/>
@@ -21842,8 +21866,8 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="83"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="73"/>
@@ -21869,7 +21893,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="96"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="73"/>
@@ -21895,7 +21919,7 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="73"/>
@@ -21921,7 +21945,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="83"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="73"/>
@@ -21946,11 +21970,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -21995,12 +22019,12 @@
       <c r="Q42" s="46">
         <v>7</v>
       </c>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -22034,14 +22058,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -23314,58 +23338,58 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
-      <c r="Z34" s="100"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -23408,13 +23432,13 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -23439,7 +23463,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="96"/>
+      <c r="R36" s="83"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="73"/>
@@ -23464,8 +23488,8 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="83"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="73"/>
@@ -23491,7 +23515,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="96"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="73"/>
@@ -23517,7 +23541,7 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="73"/>
@@ -23543,7 +23567,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="83"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="73"/>
@@ -23568,11 +23592,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -23597,12 +23621,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -24020,17 +24044,29 @@
       <c r="W7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="X7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -24043,11 +24079,17 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>1</v>
+      </c>
       <c r="X8" s="62"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -24213,12 +24255,20 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>2</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -24231,22 +24281,36 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24">
+        <v>0</v>
+      </c>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
       <c r="X15" s="64"/>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="F16" s="28">
+        <v>2</v>
+      </c>
+      <c r="G16" s="29">
+        <v>2</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>84</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -24259,11 +24323,17 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="59">
+        <v>1</v>
+      </c>
       <c r="X16" s="65"/>
-      <c r="Y16" s="30"/>
+      <c r="Y16" s="30" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -24595,71 +24665,67 @@
     <row r="23" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38"/>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U23" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="T23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="V23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X23" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -24671,16 +24737,24 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>20</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>327</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -24857,16 +24931,24 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="24">
+        <v>2</v>
+      </c>
+      <c r="L31" s="24">
+        <v>20</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>5</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -24885,16 +24967,24 @@
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>20</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="K32" s="29">
+        <v>8</v>
+      </c>
+      <c r="L32" s="29">
+        <v>307</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>5</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -24921,10 +25011,10 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
@@ -24932,48 +25022,48 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -25019,7 +25109,7 @@
       <c r="Q35" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="87"/>
+      <c r="R35" s="76"/>
       <c r="S35" s="70"/>
       <c r="T35" s="70"/>
       <c r="U35" s="40"/>
@@ -25035,18 +25125,40 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="F36" s="45">
+        <v>313</v>
+      </c>
+      <c r="G36" s="45">
+        <v>2</v>
+      </c>
+      <c r="H36" s="45">
+        <v>1</v>
+      </c>
+      <c r="I36" s="45">
+        <v>5</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>5</v>
+      </c>
+      <c r="L36" s="45">
+        <v>1</v>
+      </c>
+      <c r="M36" s="45">
+        <v>2</v>
+      </c>
+      <c r="N36" s="45">
+        <v>20</v>
+      </c>
+      <c r="O36" s="45">
+        <v>5</v>
+      </c>
       <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="Q36" s="46">
+        <v>10</v>
+      </c>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
@@ -25072,7 +25184,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -25176,11 +25288,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -25193,24 +25305,46 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="F42" s="45">
+        <v>313</v>
+      </c>
+      <c r="G42" s="45">
+        <v>2</v>
+      </c>
+      <c r="H42" s="45">
+        <v>1</v>
+      </c>
+      <c r="I42" s="45">
+        <v>5</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>5</v>
+      </c>
+      <c r="L42" s="45">
+        <v>1</v>
+      </c>
+      <c r="M42" s="45">
+        <v>2</v>
+      </c>
+      <c r="N42" s="45">
+        <v>20</v>
+      </c>
+      <c r="O42" s="45">
+        <v>5</v>
+      </c>
       <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="Q42" s="46">
+        <v>10</v>
+      </c>
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -25274,8 +25408,10 @@
     <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
     <col min="3" max="7" width="5.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.140625" style="2" customWidth="1"/>
@@ -25627,17 +25763,27 @@
       <c r="W7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="X7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -25650,11 +25796,17 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
       <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>2</v>
+      </c>
       <c r="X8" s="62"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -25820,12 +25972,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -25838,22 +25996,34 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="24">
+        <v>2</v>
+      </c>
       <c r="X15" s="64"/>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>88</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -25866,11 +26036,17 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
       <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="59">
+        <v>0</v>
+      </c>
       <c r="X16" s="65"/>
-      <c r="Y16" s="30"/>
+      <c r="Y16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -26202,92 +26378,100 @@
     <row r="23" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38"/>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U23" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="T23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="V23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X23" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>33</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>277</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -26459,21 +26643,33 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>3</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="24">
+        <v>3</v>
+      </c>
+      <c r="L31" s="24">
+        <v>35</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -26487,21 +26683,33 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>33</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="K32" s="29">
+        <v>7</v>
+      </c>
+      <c r="L32" s="29">
+        <v>242</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -26538,47 +26746,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -26621,7 +26829,7 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
       <c r="R35" s="70"/>
@@ -26640,18 +26848,32 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
+      <c r="F36" s="45">
+        <v>316</v>
+      </c>
+      <c r="G36" s="45">
+        <v>3</v>
+      </c>
+      <c r="H36" s="45">
+        <v>5</v>
+      </c>
       <c r="I36" s="45"/>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="45">
+        <v>12</v>
+      </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
       <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="O36" s="45">
+        <v>3</v>
+      </c>
+      <c r="P36" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>4</v>
+      </c>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
@@ -26677,7 +26899,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
+      <c r="Q37" s="74"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
@@ -26781,11 +27003,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -26798,24 +27020,38 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
+      <c r="F42" s="45">
+        <v>316</v>
+      </c>
+      <c r="G42" s="45">
+        <v>3</v>
+      </c>
+      <c r="H42" s="45">
+        <v>5</v>
+      </c>
       <c r="I42" s="45"/>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="45">
+        <v>12</v>
+      </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="O42" s="45">
+        <v>3</v>
+      </c>
+      <c r="P42" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>4</v>
+      </c>
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -26869,7 +27105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5682E203-6764-4579-88F5-B53BF296447F}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -27230,17 +27466,27 @@
       <c r="W7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="X7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15">
+        <v>18</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -27253,9 +27499,15 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
+      <c r="V8" s="15">
+        <v>1</v>
+      </c>
+      <c r="W8" s="15">
+        <v>3</v>
+      </c>
       <c r="X8" s="62"/>
       <c r="Y8" s="16"/>
     </row>
@@ -27424,11 +27676,17 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -27441,9 +27699,15 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
+      <c r="V15" s="24">
+        <v>0</v>
+      </c>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
       <c r="X15" s="64"/>
       <c r="Y15" s="25"/>
     </row>
@@ -27452,11 +27716,17 @@
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>2</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>2</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>90</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -27469,9 +27739,15 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
+      <c r="V16" s="29">
+        <v>1</v>
+      </c>
+      <c r="W16" s="59">
+        <v>3</v>
+      </c>
       <c r="X16" s="65"/>
       <c r="Y16" s="30"/>
     </row>
@@ -27805,71 +28081,67 @@
     <row r="23" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="38"/>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U23" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="T23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="V23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X23" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
     </row>
     <row r="24" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -27879,18 +28151,32 @@
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="H24" s="15">
+        <v>72</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="15">
+        <v>15</v>
+      </c>
+      <c r="L24" s="15">
+        <v>528</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -28065,18 +28351,32 @@
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="H31" s="24">
+        <v>37</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="24">
+        <v>11</v>
+      </c>
+      <c r="L31" s="24">
+        <v>114</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>10</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -28093,18 +28393,32 @@
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="H32" s="29">
+        <v>35</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>4</v>
+      </c>
+      <c r="L32" s="29">
+        <v>414</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -28131,58 +28445,58 @@
       <c r="O33" s="32"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="74" t="s">
+      <c r="D34" s="90"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="74" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="74" t="s">
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="75"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="83" t="s">
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="77" t="s">
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="90"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
-      <c r="Z34" s="100"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="82"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -28225,13 +28539,13 @@
       <c r="P35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="91" t="s">
+      <c r="Q35" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="R35" s="93"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="82"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -28256,7 +28570,7 @@
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="96"/>
+      <c r="R36" s="83"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="73"/>
@@ -28281,8 +28595,8 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
       <c r="P37" s="51"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="83"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
       <c r="U37" s="73"/>
@@ -28308,7 +28622,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="96"/>
+      <c r="R38" s="83"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
       <c r="U38" s="73"/>
@@ -28334,7 +28648,7 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="83"/>
       <c r="S39" s="71"/>
       <c r="T39" s="71"/>
       <c r="U39" s="73"/>
@@ -28360,7 +28674,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="96"/>
+      <c r="R40" s="83"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
       <c r="U40" s="73"/>
@@ -28385,11 +28699,11 @@
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
       <c r="V41" s="73"/>
       <c r="W41" s="73"/>
       <c r="X41" s="73"/>
@@ -28402,24 +28716,46 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="F42" s="45">
+        <v>429</v>
+      </c>
+      <c r="G42" s="45">
+        <v>17</v>
+      </c>
+      <c r="H42" s="45">
+        <v>2</v>
+      </c>
+      <c r="I42" s="45">
+        <v>8</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="88" t="s">
+      <c r="K42" s="45">
+        <v>6</v>
+      </c>
+      <c r="L42" s="45">
+        <v>4</v>
+      </c>
+      <c r="M42" s="45">
+        <v>1</v>
+      </c>
+      <c r="N42" s="45">
+        <v>23</v>
+      </c>
+      <c r="O42" s="45">
+        <v>4</v>
+      </c>
+      <c r="P42" s="45">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>20</v>
+      </c>
+      <c r="R42" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="89"/>
-      <c r="U42" s="89"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>

--- a/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6351E59-1F9F-4B87-8DD8-F701773A954F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986C0CA-C445-4869-9C82-4AB8E12D2138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
@@ -1329,6 +1329,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,10 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4195,40 +4195,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -4236,7 +4236,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -4468,12 +4468,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -5839,40 +5839,40 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -5880,7 +5880,7 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -6140,12 +6140,12 @@
       <c r="Q42" s="46">
         <v>43</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -6181,22 +6181,22 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>5+22+2+235</f>
         <v>264</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <v>3</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6603,7 +6603,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="91" t="s">
         <v>99</v>
       </c>
       <c r="I8" s="15"/>
@@ -7558,47 +7558,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="104" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -7870,12 +7870,12 @@
       <c r="Q42" s="46">
         <v>3</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -7911,23 +7911,23 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>18+5+203+3+8</f>
         <v>237</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9299,40 +9299,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -9340,7 +9340,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -9628,12 +9628,12 @@
       <c r="Q42" s="46">
         <v>23</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -9669,20 +9669,20 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>1+7+13+2+5+3+143+2+20+474+4</f>
         <v>674</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10978,40 +10978,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -11019,7 +11019,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -11251,12 +11251,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -12586,40 +12586,40 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -12627,7 +12627,7 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -12859,12 +12859,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -12900,17 +12900,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -14212,47 +14212,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="104" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -14484,12 +14484,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -14525,17 +14525,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15833,40 +15833,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -15874,7 +15874,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -16106,12 +16106,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -16147,17 +16147,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -17453,40 +17453,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -17494,7 +17494,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -17726,12 +17726,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -19061,40 +19061,40 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -19102,7 +19102,7 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -19334,12 +19334,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -19375,17 +19375,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -20686,48 +20686,48 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="91" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="94" t="s">
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="96"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="97"/>
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -20962,13 +20962,13 @@
       <c r="R42" s="68"/>
       <c r="S42" s="68"/>
       <c r="T42" s="46"/>
-      <c r="U42" s="97" t="s">
+      <c r="U42" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
+      <c r="V42" s="98"/>
+      <c r="W42" s="98"/>
+      <c r="X42" s="98"/>
+      <c r="Y42" s="98"/>
     </row>
     <row r="43" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -22293,47 +22293,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="104" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -22565,12 +22565,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -22606,17 +22606,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -23914,40 +23914,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -23955,7 +23955,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -24187,12 +24187,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -24228,17 +24228,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -25534,40 +25534,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -25575,7 +25575,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -25807,12 +25807,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -27142,40 +27142,40 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -27183,7 +27183,7 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -27415,12 +27415,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -27456,17 +27456,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -28768,47 +28768,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="104" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -29040,12 +29040,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -29081,17 +29081,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -30389,40 +30389,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -30430,7 +30430,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -30662,12 +30662,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -30703,17 +30703,17 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -32009,40 +32009,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -32050,7 +32050,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -32282,12 +32282,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -33677,40 +33677,40 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -33718,7 +33718,7 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -33998,12 +33998,12 @@
       <c r="Q42" s="46">
         <v>34</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -34039,35 +34039,35 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>14+118+10+283</f>
         <v>425</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <v>7</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -35420,47 +35420,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="104" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -35724,12 +35724,12 @@
       <c r="Q42" s="46">
         <v>18</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -35765,35 +35765,35 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>2+20+53+11+458</f>
         <v>544</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <v>22</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -37132,40 +37132,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -37173,7 +37173,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -37445,12 +37445,12 @@
       <c r="Q42" s="46">
         <v>7</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -37486,35 +37486,35 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>7+5+40+7+330</f>
         <v>389</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <v>4</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -38797,40 +38797,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -38838,7 +38838,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -39070,12 +39070,12 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -40471,40 +40471,40 @@
       <c r="Z33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -40512,7 +40512,7 @@
       <c r="Z34" s="32"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -40788,12 +40788,12 @@
       <c r="Q42" s="46">
         <v>10</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -40829,23 +40829,23 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>2+2+2+1+20+8+307+5</f>
         <v>347</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <f>2+12+12</f>
         <v>26</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -42219,47 +42219,47 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="104" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
       <c r="V34" s="72"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
       <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -42519,12 +42519,12 @@
       <c r="Q42" s="46">
         <v>4</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -42560,23 +42560,23 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>1+4+1+33+7+242</f>
         <v>288</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <f>9</f>
         <v>9</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -43952,40 +43952,40 @@
       <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91" t="s">
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="91" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="91" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="94" t="s">
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="97"/>
       <c r="V34" s="77"/>
       <c r="W34" s="72"/>
       <c r="X34" s="72"/>
@@ -43993,7 +43993,7 @@
       <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="53" t="s">
         <v>49</v>
       </c>
@@ -44269,12 +44269,12 @@
       <c r="Q42" s="46">
         <v>20</v>
       </c>
-      <c r="R42" s="102" t="s">
+      <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
       <c r="V42" s="72"/>
       <c r="W42" s="72"/>
       <c r="X42" s="72"/>
@@ -44310,23 +44310,23 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="101">
         <f>2+2+12+1+3+35+1+4+414</f>
         <v>474</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="101">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986C0CA-C445-4869-9C82-4AB8E12D2138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13126785-806C-4DD4-BBC9-E870916F5CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="14" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | FEBRUARY" sheetId="902" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="113">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -398,6 +398,33 @@
   </si>
   <si>
     <t>1/12B</t>
+  </si>
+  <si>
+    <t>12/20B</t>
+  </si>
+  <si>
+    <t>8/14B</t>
+  </si>
+  <si>
+    <t>4/6B</t>
+  </si>
+  <si>
+    <t>10/6B</t>
+  </si>
+  <si>
+    <t>2/4B</t>
+  </si>
+  <si>
+    <t>8/2B</t>
+  </si>
+  <si>
+    <t>10/9B</t>
+  </si>
+  <si>
+    <t>2/11B</t>
+  </si>
+  <si>
+    <t>1/2B</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1491,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>337518</xdr:colOff>
+      <xdr:colOff>337519</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>156436</xdr:rowOff>
     </xdr:to>
@@ -1574,7 +1601,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>101203</xdr:colOff>
+      <xdr:colOff>101204</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>141681</xdr:rowOff>
     </xdr:to>
@@ -7953,7 +7980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D522847F-9B65-455B-A861-2E0772BE14B6}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11309,7 +11336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD3BA77-BD9A-4D32-8E38-C99CA50308F5}">
   <dimension ref="B1:AD45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11317,7 +11344,9 @@
   <cols>
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-    <col min="3" max="15" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3" max="7" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="5.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -11683,12 +11712,18 @@
     </row>
     <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>4</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -11698,12 +11733,20 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="15">
+        <v>6</v>
+      </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
+      <c r="V8" s="15">
+        <v>1</v>
+      </c>
+      <c r="W8" s="15">
+        <v>2</v>
+      </c>
       <c r="X8" s="62"/>
       <c r="Y8" s="16"/>
     </row>
@@ -11871,12 +11914,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -11886,12 +11935,20 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="R15" s="24">
+        <v>3</v>
+      </c>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
+      <c r="V15" s="24">
+        <v>1</v>
+      </c>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
       <c r="X15" s="64"/>
       <c r="Y15" s="25"/>
     </row>
@@ -11899,12 +11956,18 @@
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>1</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>4</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>106</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -11914,12 +11977,20 @@
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="R16" s="29">
+        <v>3</v>
+      </c>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
+      <c r="V16" s="29">
+        <v>0</v>
+      </c>
+      <c r="W16" s="59">
+        <v>2</v>
+      </c>
       <c r="X16" s="65"/>
       <c r="Y16" s="30"/>
     </row>
@@ -12320,21 +12391,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>2</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="H24" s="15">
+        <v>34</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>216</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -12506,21 +12593,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>2</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
+      <c r="I31" s="24">
+        <v>1</v>
+      </c>
+      <c r="J31" s="24">
+        <v>10</v>
+      </c>
+      <c r="K31" s="24">
+        <v>9</v>
+      </c>
+      <c r="L31" s="24">
+        <v>9</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>10</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -12534,21 +12637,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="H32" s="29">
+        <v>33</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+      <c r="J32" s="29">
+        <v>10</v>
+      </c>
+      <c r="K32" s="29">
+        <v>1</v>
+      </c>
+      <c r="L32" s="29">
+        <v>207</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -12686,21 +12805,43 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
+      <c r="D36" s="44">
+        <v>1</v>
+      </c>
+      <c r="E36" s="45">
+        <v>16</v>
+      </c>
+      <c r="F36" s="45">
+        <v>232</v>
+      </c>
+      <c r="G36" s="45">
+        <v>9</v>
+      </c>
       <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
+      <c r="I36" s="45">
+        <v>8</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
       <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="L36" s="45">
+        <v>3</v>
+      </c>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="N36" s="45">
+        <v>7</v>
+      </c>
+      <c r="O36" s="45">
+        <v>7</v>
+      </c>
       <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="Q36" s="46">
+        <v>5</v>
+      </c>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
@@ -12844,21 +12985,43 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+      <c r="E42" s="45">
+        <v>16</v>
+      </c>
+      <c r="F42" s="45">
+        <v>232</v>
+      </c>
+      <c r="G42" s="45">
+        <v>9</v>
+      </c>
       <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="45">
+        <v>8</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
       <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="L42" s="45">
+        <v>3</v>
+      </c>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="N42" s="45">
+        <v>7</v>
+      </c>
+      <c r="O42" s="45">
+        <v>7</v>
+      </c>
       <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="Q42" s="46">
+        <v>5</v>
+      </c>
       <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
@@ -12900,7 +13063,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="101">
+        <f>1+4+4+3+2+1+33+10+1+207</f>
+        <v>266</v>
+      </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
@@ -12908,9 +13074,11 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="C45" s="101">
+        <v>6</v>
+      </c>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12936,7 +13104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE96C5B-BA53-4DBE-8996-CF82EB3C9F6F}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -13310,12 +13478,18 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>4</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -13328,11 +13502,17 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
       <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>2</v>
+      </c>
       <c r="X8" s="62"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -13498,12 +13678,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -13516,22 +13702,34 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="24">
+        <v>1</v>
+      </c>
       <c r="X15" s="64"/>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>4</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>109</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -13544,11 +13742,17 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
       <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="59">
+        <v>1</v>
+      </c>
       <c r="X16" s="65"/>
-      <c r="Y16" s="30"/>
+      <c r="Y16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -13947,21 +14151,35 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>30</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>272</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -14133,21 +14351,35 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="24">
+        <v>10</v>
+      </c>
+      <c r="L31" s="24">
+        <v>67</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -14161,21 +14393,35 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
+      <c r="D32" s="28">
+        <v>1</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>2</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>29</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>205</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -14311,21 +14557,41 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>5</v>
+      </c>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="45">
+        <v>196</v>
+      </c>
+      <c r="G36" s="45">
+        <v>2</v>
+      </c>
+      <c r="H36" s="45">
+        <v>2</v>
+      </c>
+      <c r="I36" s="45">
+        <v>3</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="K36" s="45">
+        <v>4</v>
+      </c>
+      <c r="L36" s="45">
+        <v>2</v>
+      </c>
       <c r="M36" s="45"/>
       <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="O36" s="45">
+        <v>3</v>
+      </c>
+      <c r="P36" s="45">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>4</v>
+      </c>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
@@ -14469,21 +14735,41 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>5</v>
+      </c>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="F42" s="45">
+        <v>196</v>
+      </c>
+      <c r="G42" s="45">
+        <v>2</v>
+      </c>
+      <c r="H42" s="45">
+        <v>2</v>
+      </c>
+      <c r="I42" s="45">
+        <v>3</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="K42" s="45">
+        <v>4</v>
+      </c>
+      <c r="L42" s="45">
+        <v>2</v>
+      </c>
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="O42" s="45">
+        <v>3</v>
+      </c>
+      <c r="P42" s="45">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>4</v>
+      </c>
       <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
@@ -14525,7 +14811,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="101">
+        <f>4+8+1+1+1+2+29+205</f>
+        <v>251</v>
+      </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
@@ -14533,9 +14822,12 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="C45" s="101">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -14569,7 +14861,9 @@
   <cols>
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-    <col min="3" max="15" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3" max="7" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="5.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -14931,12 +15225,18 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -14949,9 +15249,13 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="15">
+        <v>4</v>
+      </c>
       <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>3</v>
+      </c>
       <c r="X8" s="62"/>
       <c r="Y8" s="16"/>
     </row>
@@ -15119,12 +15423,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -15137,9 +15447,13 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24">
+        <v>0</v>
+      </c>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
       <c r="X15" s="64"/>
       <c r="Y15" s="25"/>
     </row>
@@ -15147,12 +15461,18 @@
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="60">
+        <v>1</v>
+      </c>
+      <c r="D16" s="61">
+        <v>1</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>110</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -15165,9 +15485,13 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="29">
+        <v>4</v>
+      </c>
       <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="59">
+        <v>3</v>
+      </c>
       <c r="X16" s="65"/>
       <c r="Y16" s="30"/>
     </row>
@@ -15571,20 +15895,34 @@
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>110</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>396</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+      <c r="S24" s="15">
+        <v>1</v>
+      </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
@@ -15757,20 +16095,34 @@
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>104</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="J31" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="24">
+        <v>10</v>
+      </c>
+      <c r="L31" s="24">
+        <v>148</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>10</v>
+      </c>
       <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
+      <c r="S31" s="24">
+        <v>0</v>
+      </c>
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
       <c r="V31" s="24"/>
@@ -15785,20 +16137,34 @@
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>6</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>248</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
+      <c r="S32" s="29">
+        <v>1</v>
+      </c>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
       <c r="V32" s="29"/>
@@ -15933,19 +16299,41 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>6</v>
+      </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="E36" s="45">
+        <v>12</v>
+      </c>
+      <c r="F36" s="45">
+        <v>409</v>
+      </c>
+      <c r="G36" s="45">
+        <v>1</v>
+      </c>
+      <c r="H36" s="45">
+        <v>4</v>
+      </c>
+      <c r="I36" s="45">
+        <v>2</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="K36" s="45">
+        <v>4</v>
+      </c>
+      <c r="L36" s="45">
+        <v>14</v>
+      </c>
+      <c r="M36" s="45">
+        <v>1</v>
+      </c>
+      <c r="N36" s="45">
+        <v>23</v>
+      </c>
+      <c r="O36" s="45">
+        <v>23</v>
+      </c>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
       <c r="R36" s="83"/>
@@ -16091,19 +16479,41 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>6</v>
+      </c>
       <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="E42" s="45">
+        <v>12</v>
+      </c>
+      <c r="F42" s="45">
+        <v>409</v>
+      </c>
+      <c r="G42" s="45">
+        <v>1</v>
+      </c>
+      <c r="H42" s="45">
+        <v>4</v>
+      </c>
+      <c r="I42" s="45">
+        <v>2</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="K42" s="45">
+        <v>4</v>
+      </c>
+      <c r="L42" s="45">
+        <v>14</v>
+      </c>
+      <c r="M42" s="45">
+        <v>1</v>
+      </c>
+      <c r="N42" s="45">
+        <v>23</v>
+      </c>
+      <c r="O42" s="45">
+        <v>23</v>
+      </c>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
       <c r="R42" s="103" t="s">
@@ -16147,7 +16557,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="101">
+        <f>1+1+10+4+3+6+248+1</f>
+        <v>274</v>
+      </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
@@ -16155,9 +16568,12 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="C45" s="101">
+        <f>9+12</f>
+        <v>21</v>
+      </c>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -34058,16 +34474,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="R34:U34"/>
     <mergeCell ref="R42:U42"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -35784,16 +36200,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="R34:U34"/>
     <mergeCell ref="R42:U42"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -37505,16 +37921,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="R34:U34"/>
     <mergeCell ref="R42:U42"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13126785-806C-4DD4-BBC9-E870916F5CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DAD5C2-F638-4D44-B317-CFE5EBEC56D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="14" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="114">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>1/2B</t>
+  </si>
+  <si>
+    <t>PROMO:</t>
   </si>
 </sst>
 </file>
@@ -11334,10 +11337,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD3BA77-BD9A-4D32-8E38-C99CA50308F5}">
-  <dimension ref="B1:AD45"/>
+  <dimension ref="B1:AD46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12406,9 +12409,7 @@
       <c r="I24" s="15">
         <v>1</v>
       </c>
-      <c r="J24" s="15">
-        <v>20</v>
-      </c>
+      <c r="J24" s="15"/>
       <c r="K24" s="15">
         <v>10</v>
       </c>
@@ -12608,9 +12609,7 @@
       <c r="I31" s="24">
         <v>1</v>
       </c>
-      <c r="J31" s="24">
-        <v>10</v>
-      </c>
+      <c r="J31" s="24"/>
       <c r="K31" s="24">
         <v>9</v>
       </c>
@@ -12652,9 +12651,7 @@
       <c r="I32" s="29">
         <v>0</v>
       </c>
-      <c r="J32" s="29">
-        <v>10</v>
-      </c>
+      <c r="J32" s="29"/>
       <c r="K32" s="29">
         <v>1</v>
       </c>
@@ -13080,8 +13077,20 @@
       <c r="D45" s="101"/>
       <c r="E45" s="101"/>
     </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="101">
+        <f>10*973</f>
+        <v>9730</v>
+      </c>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="R34:U34"/>
     <mergeCell ref="R42:U42"/>
     <mergeCell ref="C44:E44"/>

--- a/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DAD5C2-F638-4D44-B317-CFE5EBEC56D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F522CFA3-024A-4A4D-AED6-49F41D22C0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="14" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="19" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | FEBRUARY" sheetId="902" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="(6)" sheetId="1372" r:id="rId18"/>
     <sheet name="02-06 R1" sheetId="1373" r:id="rId19"/>
     <sheet name="02-06 R2" sheetId="1374" r:id="rId20"/>
-    <sheet name="02-06 R3" sheetId="1375" r:id="rId21"/>
+    <sheet name="02-06 R3 NO TRIP" sheetId="1375" r:id="rId21"/>
     <sheet name="(7)" sheetId="1376" r:id="rId22"/>
     <sheet name="02-07 R1" sheetId="1377" r:id="rId23"/>
     <sheet name="02-07 R2" sheetId="1378" r:id="rId24"/>
@@ -65,7 +65,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="16">'02-05 R3'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'02-06 R1'!$A$1:$Y$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">'02-06 R2'!$A$1:$V$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">'02-06 R3'!$A$1:$V$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'02-06 R3 NO TRIP'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="22">'02-07 R1'!$A$1:$Y$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="23">'02-07 R2'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="24">'02-07 R3'!$A$1:$V$44</definedName>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="119">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -428,6 +428,21 @@
   </si>
   <si>
     <t>PROMO:</t>
+  </si>
+  <si>
+    <t>6/3B</t>
+  </si>
+  <si>
+    <t>7/10B</t>
+  </si>
+  <si>
+    <t>3/18B</t>
+  </si>
+  <si>
+    <t>11/4B</t>
+  </si>
+  <si>
+    <t>4/2B</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1094,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1407,6 +1422,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11339,7 +11358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD3BA77-BD9A-4D32-8E38-C99CA50308F5}">
   <dimension ref="B1:AD46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -13090,16 +13109,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="R34:U34"/>
     <mergeCell ref="R42:U42"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
     <mergeCell ref="O34:Q34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
@@ -18583,29 +18602,53 @@
     </row>
     <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="Q8" s="15">
+        <v>1</v>
+      </c>
+      <c r="R8" s="15">
+        <v>3</v>
+      </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
+      <c r="V8" s="15">
+        <v>2</v>
+      </c>
+      <c r="W8" s="15">
+        <v>50</v>
+      </c>
       <c r="X8" s="62"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -18771,57 +18814,105 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="24">
+        <v>0</v>
+      </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="Q15" s="24">
+        <v>0</v>
+      </c>
+      <c r="R15" s="24">
+        <v>3</v>
+      </c>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
+      <c r="V15" s="24">
+        <v>0</v>
+      </c>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
       <c r="X15" s="64"/>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="60">
+        <v>5</v>
+      </c>
+      <c r="D16" s="61">
+        <v>10</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="F16" s="28">
+        <v>5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>111</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="M16" s="29">
+        <v>1</v>
+      </c>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="Q16" s="29">
+        <v>1</v>
+      </c>
+      <c r="R16" s="29">
+        <v>0</v>
+      </c>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
+      <c r="V16" s="29">
+        <v>2</v>
+      </c>
+      <c r="W16" s="59">
+        <v>50</v>
+      </c>
       <c r="X16" s="65"/>
-      <c r="Y16" s="30"/>
+      <c r="Y16" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -19221,20 +19312,40 @@
         <v>23</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15">
+        <v>2</v>
+      </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>2</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="H24" s="15">
+        <v>10</v>
+      </c>
+      <c r="I24" s="15">
+        <v>5</v>
+      </c>
+      <c r="J24" s="15">
+        <v>10</v>
+      </c>
+      <c r="K24" s="15">
+        <v>28</v>
+      </c>
+      <c r="L24" s="15">
+        <v>117</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="O24" s="15">
+        <v>2</v>
+      </c>
+      <c r="P24" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -19407,20 +19518,40 @@
         <v>25</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>2</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
+        <v>3</v>
+      </c>
+      <c r="L31" s="24">
+        <v>60</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="P31" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>0</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -19435,20 +19566,40 @@
         <v>26</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="28">
+        <v>2</v>
+      </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="H32" s="29">
+        <v>7</v>
+      </c>
+      <c r="I32" s="29">
+        <v>5</v>
+      </c>
+      <c r="J32" s="29">
+        <v>10</v>
+      </c>
+      <c r="K32" s="29">
+        <v>25</v>
+      </c>
+      <c r="L32" s="29">
+        <v>57</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="O32" s="107">
+        <v>2</v>
+      </c>
+      <c r="P32" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>10</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -19587,20 +19738,38 @@
         <v>52</v>
       </c>
       <c r="C36" s="49"/>
-      <c r="D36" s="44"/>
+      <c r="D36" s="44">
+        <v>7</v>
+      </c>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
+      <c r="F36" s="45">
+        <v>69</v>
+      </c>
+      <c r="G36" s="45">
+        <v>158</v>
+      </c>
+      <c r="H36" s="45">
+        <v>1</v>
+      </c>
+      <c r="I36" s="45">
+        <v>5</v>
+      </c>
+      <c r="J36" s="45">
+        <v>14</v>
+      </c>
       <c r="K36" s="45"/>
       <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="M36" s="45">
+        <v>46</v>
+      </c>
       <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="O36" s="45">
+        <v>2</v>
+      </c>
       <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="Q36" s="46">
+        <v>8</v>
+      </c>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
@@ -19745,20 +19914,38 @@
         <v>53</v>
       </c>
       <c r="C42" s="49"/>
-      <c r="D42" s="44"/>
+      <c r="D42" s="44">
+        <v>7</v>
+      </c>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="F42" s="45">
+        <v>69</v>
+      </c>
+      <c r="G42" s="45">
+        <v>158</v>
+      </c>
+      <c r="H42" s="45">
+        <v>1</v>
+      </c>
+      <c r="I42" s="45">
+        <v>5</v>
+      </c>
+      <c r="J42" s="45">
+        <v>14</v>
+      </c>
       <c r="K42" s="45"/>
       <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
+      <c r="M42" s="45">
+        <v>46</v>
+      </c>
       <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="O42" s="45">
+        <v>2</v>
+      </c>
       <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="Q42" s="46">
+        <v>8</v>
+      </c>
       <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
@@ -19800,7 +19987,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="101">
+        <f>5+10+5+1+2+1+1+2+50+5+2+7+5+10+25+57+2+2+10</f>
+        <v>202</v>
+      </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
@@ -19808,9 +19998,12 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="C45" s="101">
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -21442,7 +21635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CA0B9A-3F5E-4F7B-A02C-A423BF4FF868}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -21816,12 +22009,16 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -21834,11 +22031,17 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
       <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>7</v>
+      </c>
       <c r="X8" s="62"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -22004,12 +22207,16 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -22022,22 +22229,32 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="24">
+        <v>2</v>
+      </c>
       <c r="X15" s="64"/>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>115</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -22050,11 +22267,17 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
       <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="59">
+        <v>5</v>
+      </c>
       <c r="X16" s="65"/>
-      <c r="Y16" s="30"/>
+      <c r="Y16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -22456,18 +22679,28 @@
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>2</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>60</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>283</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -22642,18 +22875,28 @@
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>2</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>6</v>
+      </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="24">
+        <v>3</v>
+      </c>
+      <c r="L31" s="24">
+        <v>103</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -22670,18 +22913,28 @@
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>1</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>54</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="K32" s="29">
+        <v>7</v>
+      </c>
+      <c r="L32" s="29">
+        <v>180</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>2</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -22817,21 +23070,39 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="45">
+        <v>228</v>
+      </c>
+      <c r="G36" s="45">
+        <v>10</v>
+      </c>
+      <c r="H36" s="45">
+        <v>8</v>
+      </c>
+      <c r="I36" s="45">
+        <v>7</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="45">
+        <v>9</v>
+      </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="N36" s="45">
+        <v>2</v>
+      </c>
+      <c r="O36" s="45">
+        <v>6</v>
+      </c>
       <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="Q36" s="46">
+        <v>1</v>
+      </c>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
@@ -22975,21 +23246,39 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="F42" s="45">
+        <v>228</v>
+      </c>
+      <c r="G42" s="45">
+        <v>10</v>
+      </c>
+      <c r="H42" s="45">
+        <v>8</v>
+      </c>
+      <c r="I42" s="45">
+        <v>7</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="45">
+        <v>9</v>
+      </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="N42" s="45">
+        <v>2</v>
+      </c>
+      <c r="O42" s="45">
+        <v>6</v>
+      </c>
       <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="Q42" s="46">
+        <v>1</v>
+      </c>
       <c r="R42" s="103" t="s">
         <v>54</v>
       </c>
@@ -23031,7 +23320,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="101">
+        <f>7+5+1+54+7+180+2</f>
+        <v>256</v>
+      </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
@@ -23039,9 +23331,12 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
+      <c r="C45" s="101">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -34483,16 +34778,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -36209,16 +36504,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -37930,16 +38225,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R42:U42"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R42:U42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/CSR MONTH OF FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED49FEF-CAE1-45AA-8B12-0976AA149EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042FFC4-53B8-47E7-9166-BB9BE703573A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="24" activeTab="28" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="24" activeTab="32" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | FEBRUARY" sheetId="902" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="148">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -524,6 +524,36 @@
   </si>
   <si>
     <t>20/6B</t>
+  </si>
+  <si>
+    <t>2/11b</t>
+  </si>
+  <si>
+    <t>11/7b</t>
+  </si>
+  <si>
+    <t>13/18b</t>
+  </si>
+  <si>
+    <t>10/3b</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>9/15b</t>
+  </si>
+  <si>
+    <t>4/2b</t>
+  </si>
+  <si>
+    <t>7/2b</t>
+  </si>
+  <si>
+    <t>6/20b</t>
+  </si>
+  <si>
+    <t>6b</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2345,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>337518</xdr:colOff>
+      <xdr:colOff>337519</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>156436</xdr:rowOff>
     </xdr:to>
@@ -33978,8 +34008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A8548-15FB-4D63-A81D-F026A1C48D01}">
   <dimension ref="B1:AD45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:E45"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -37435,8 +37465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCEC128-BFE8-4D0D-A79F-E9A7DF4DAEBA}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -42524,8 +42554,14 @@
   <cols>
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-    <col min="3" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="5.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.140625" style="2" customWidth="1"/>
@@ -42890,12 +42926,20 @@
     </row>
     <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -42908,7 +42952,9 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="62"/>
@@ -43078,12 +43124,20 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -43096,7 +43150,9 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
       <c r="X15" s="64"/>
@@ -43106,12 +43162,20 @@
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>138</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -43124,7 +43188,9 @@
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
       <c r="V16" s="29"/>
       <c r="W16" s="59"/>
       <c r="X16" s="65"/>
@@ -43530,18 +43596,28 @@
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>2</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>56</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="15">
+        <v>230</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -43716,18 +43792,28 @@
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>2</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>31</v>
+      </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="24">
+        <v>6</v>
+      </c>
+      <c r="L31" s="24">
+        <v>1</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>10</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -43744,18 +43830,28 @@
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>25</v>
+      </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="K32" s="29">
+        <v>4</v>
+      </c>
+      <c r="L32" s="29">
+        <v>229</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -43896,18 +43992,36 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
+      <c r="F36" s="45">
+        <v>255</v>
+      </c>
+      <c r="G36" s="45">
+        <v>2</v>
+      </c>
+      <c r="H36" s="45">
+        <v>4</v>
+      </c>
+      <c r="I36" s="45">
+        <v>2</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
       <c r="K36" s="45"/>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>35</v>
+      </c>
+      <c r="O36" s="45">
+        <v>4</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>13</v>
+      </c>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
@@ -44054,18 +44168,36 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="F42" s="45">
+        <v>255</v>
+      </c>
+      <c r="G42" s="45">
+        <v>2</v>
+      </c>
+      <c r="H42" s="45">
+        <v>4</v>
+      </c>
+      <c r="I42" s="45">
+        <v>2</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
       <c r="K42" s="45"/>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>35</v>
+      </c>
+      <c r="O42" s="45">
+        <v>4</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>13</v>
+      </c>
       <c r="R42" s="106" t="s">
         <v>54</v>
       </c>
@@ -44107,7 +44239,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="104">
+        <f>1+2+25+4+229</f>
+        <v>261</v>
+      </c>
       <c r="D44" s="104"/>
       <c r="E44" s="104"/>
     </row>
@@ -44115,9 +44250,12 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="104">
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -44517,12 +44655,18 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>10</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -44533,13 +44677,21 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="15">
+        <v>1</v>
+      </c>
       <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="15">
+        <v>2</v>
+      </c>
       <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>1</v>
+      </c>
       <c r="X8" s="62"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -44705,12 +44857,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>3</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>4</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>142</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -44721,24 +44879,38 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
+      <c r="S15" s="24">
+        <v>0</v>
+      </c>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24">
+        <v>2</v>
+      </c>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
       <c r="X15" s="64"/>
-      <c r="Y15" s="25"/>
+      <c r="Y15" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>6</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>143</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -44749,13 +44921,21 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="S16" s="29">
+        <v>1</v>
+      </c>
       <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
       <c r="V16" s="29"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="59">
+        <v>1</v>
+      </c>
       <c r="X16" s="65"/>
-      <c r="Y16" s="30"/>
+      <c r="Y16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -45157,18 +45337,30 @@
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="15">
+        <v>29</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2</v>
+      </c>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="15">
+        <v>15</v>
+      </c>
+      <c r="L24" s="15">
+        <v>271</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -45343,18 +45535,30 @@
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>3</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="H31" s="24">
+        <v>7</v>
+      </c>
+      <c r="I31" s="24">
+        <v>1</v>
+      </c>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="24">
+        <v>11</v>
+      </c>
+      <c r="L31" s="24">
+        <v>40</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -45371,18 +45575,30 @@
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
+      <c r="H32" s="29">
+        <v>22</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
       <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="K32" s="29">
+        <v>4</v>
+      </c>
+      <c r="L32" s="29">
+        <v>231</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -45732,7 +45948,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="104">
+        <f>6+9+1+1+22+1+4+231</f>
+        <v>275</v>
+      </c>
       <c r="D44" s="104"/>
       <c r="E44" s="104"/>
     </row>
@@ -45740,9 +45959,12 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="104">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -45768,7 +45990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9227D1A5-0484-4FE5-A976-C673EB32F723}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -46138,28 +46360,42 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <v>10</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="O8" s="15">
+        <v>1</v>
+      </c>
+      <c r="P8" s="15">
+        <v>1</v>
+      </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="62"/>
+      <c r="X8" s="62">
+        <v>5</v>
+      </c>
       <c r="Y8" s="16"/>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46326,56 +46562,84 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>2</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
+      <c r="O15" s="24">
+        <v>1</v>
+      </c>
+      <c r="P15" s="24">
+        <v>1</v>
+      </c>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
-      <c r="X15" s="64"/>
+      <c r="X15" s="64">
+        <v>0</v>
+      </c>
       <c r="Y15" s="25"/>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
       <c r="D16" s="61"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>10</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>147</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="29">
+        <v>0</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0</v>
+      </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
+      <c r="T16" s="29">
+        <v>0</v>
+      </c>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
       <c r="W16" s="59"/>
-      <c r="X16" s="65"/>
+      <c r="X16" s="65">
+        <v>5</v>
+      </c>
       <c r="Y16" s="30"/>
     </row>
     <row r="17" spans="2:25" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -46778,18 +47042,30 @@
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>10</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>6</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="J24" s="15">
+        <v>10</v>
+      </c>
+      <c r="K24" s="15">
+        <v>35</v>
+      </c>
+      <c r="L24" s="15">
+        <v>415</v>
+      </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -46964,18 +47240,30 @@
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>6</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0</v>
+      </c>
+      <c r="L31" s="24">
+        <v>88</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>0</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -46992,18 +47280,30 @@
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>10</v>
+      </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="J32" s="29">
+        <v>10</v>
+      </c>
+      <c r="K32" s="29">
+        <v>35</v>
+      </c>
+      <c r="L32" s="29">
+        <v>327</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>10</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -47141,17 +47441,37 @@
         <v>52</v>
       </c>
       <c r="C36" s="49"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="D36" s="44">
+        <v>10</v>
+      </c>
+      <c r="E36" s="45">
+        <v>13</v>
+      </c>
+      <c r="F36" s="45">
+        <v>116</v>
+      </c>
+      <c r="G36" s="45">
+        <v>226</v>
+      </c>
       <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="I36" s="45">
+        <v>5</v>
+      </c>
+      <c r="J36" s="45">
+        <v>29</v>
+      </c>
+      <c r="K36" s="45">
+        <v>10</v>
+      </c>
+      <c r="L36" s="45">
+        <v>2</v>
+      </c>
+      <c r="M36" s="45">
+        <v>48</v>
+      </c>
+      <c r="N36" s="45">
+        <v>16</v>
+      </c>
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="46"/>
@@ -47299,17 +47619,37 @@
         <v>53</v>
       </c>
       <c r="C42" s="49"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="D42" s="44">
+        <v>10</v>
+      </c>
+      <c r="E42" s="45">
+        <v>13</v>
+      </c>
+      <c r="F42" s="45">
+        <v>116</v>
+      </c>
+      <c r="G42" s="45">
+        <v>226</v>
+      </c>
       <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
+      <c r="I42" s="45">
+        <v>5</v>
+      </c>
+      <c r="J42" s="45">
+        <v>29</v>
+      </c>
+      <c r="K42" s="45">
+        <v>10</v>
+      </c>
+      <c r="L42" s="45">
+        <v>2</v>
+      </c>
+      <c r="M42" s="45">
+        <v>48</v>
+      </c>
+      <c r="N42" s="45">
+        <v>16</v>
+      </c>
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="46"/>
@@ -47354,7 +47694,10 @@
       <c r="B44" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="104"/>
+      <c r="C44" s="104">
+        <f>10+5+10+10+35+327+10</f>
+        <v>407</v>
+      </c>
       <c r="D44" s="104"/>
       <c r="E44" s="104"/>
     </row>
@@ -47362,9 +47705,12 @@
       <c r="B45" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="104">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
